--- a/testy_logiki_gięcia2/2.test_wyciagania_odcinkow/o1/wyniki_odcinki_o1.xlsx
+++ b/testy_logiki_gięcia2/2.test_wyciagania_odcinkow/o1/wyniki_odcinki_o1.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Skrajny</t>
+          <t>Skrajny?</t>
         </is>
       </c>
     </row>
